--- a/src/analises/result/excel/mefs_aleatorias/resultPCCAlltranspair.xlsx
+++ b/src/analises/result/excel/mefs_aleatorias/resultPCCAlltranspair.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/mefs_aleatorias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73885D2-3D83-A84F-B18E-E608EE18A28F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BD7D2E-F9BE-BC4D-B559-0C1CB121B092}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="1000" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -930,7 +930,7 @@
   <dimension ref="A1:T883"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection sqref="A1:J883"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/analises/result/excel/mefs_aleatorias/resultPCCAlltranspair.xlsx
+++ b/src/analises/result/excel/mefs_aleatorias/resultPCCAlltranspair.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/mefs_aleatorias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BD7D2E-F9BE-BC4D-B559-0C1CB121B092}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDDB996-9BB1-AD41-AD6D-FB4BE397C294}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="1000" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="3980" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultPCCAlltranspair" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -930,7 +930,7 @@
   <dimension ref="A1:T883"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J883"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/analises/result/excel/mefs_aleatorias/resultPCCAlltranspair.xlsx
+++ b/src/analises/result/excel/mefs_aleatorias/resultPCCAlltranspair.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/mefs_aleatorias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDDB996-9BB1-AD41-AD6D-FB4BE397C294}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E59C1ED-12D0-814F-AE9E-83C6171E5376}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="3980" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="3040" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultPCCAlltranspair" sheetId="1" r:id="rId1"/>
@@ -930,7 +930,7 @@
   <dimension ref="A1:T883"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
